--- a/template/ts.xlsx
+++ b/template/ts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B6C451-74FE-8B46-BD98-E5925E766E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916B0FB8-556B-D945-8E1F-23BAF5B81C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>地区</t>
   </si>
@@ -76,50 +76,6 @@
   </si>
   <si>
     <t>籍贯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好运区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX市XX区XX街道XXXX-XX-XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>党员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张一一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兄弟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -131,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -164,13 +120,6 @@
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -227,30 +176,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,35 +544,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="12" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.83203125" style="6" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.83203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -654,153 +594,93 @@
       <c r="S1" s="5"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:20" s="2" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="9" t="s">
+    <row r="3" spans="1:20" s="2" customFormat="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1985.1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1985.1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1985.1</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="T3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/template/ts.xlsx
+++ b/template/ts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B623A2D4-3C95-B846-BC55-89139A7A6C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CCECD6-E30C-6841-B602-C68F1DE0A084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="960" windowWidth="17940" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -132,8 +132,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="方正粗黑宋简体"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -186,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,10 +198,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,10 +525,13 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T3"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26">
       <c r="A1" s="1" t="s">
@@ -550,92 +558,92 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/template/ts.xlsx
+++ b/template/ts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CCECD6-E30C-6841-B602-C68F1DE0A084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E3A64-77DA-344F-951C-C9400C78809E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="960" windowWidth="17940" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -192,19 +192,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,7 +525,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/template/ts.xlsx
+++ b/template/ts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E3A64-77DA-344F-951C-C9400C78809E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4186042E-5DC5-DC43-BC72-B89C81E2ABC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="960" windowWidth="17940" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="11740" yWindow="5420" windowWidth="31080" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>台属</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>联系程度</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -192,19 +196,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,136 +526,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="26">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
+    <row r="3" spans="1:21">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="U3" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A1:T1"/>
+  <mergeCells count="14">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -660,6 +669,7 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/ts.xlsx
+++ b/template/ts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4186042E-5DC5-DC43-BC72-B89C81E2ABC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B6CE3D-8D54-964F-8C13-D89973784021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="5420" windowWidth="31080" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -36,14 +36,14 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>台属</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>地区</t>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>籍贯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通讯地址</t>
@@ -75,7 +75,7 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
@@ -94,14 +94,14 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,13 +112,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -136,11 +129,27 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,19 +205,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,130 +538,130 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -671,7 +680,7 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template/ts.xlsx
+++ b/template/ts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B6CE3D-8D54-964F-8C13-D89973784021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB5482A-E7CC-44EF-9E16-D45F5FA15835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="5420" windowWidth="31080" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="5070" yWindow="7755" windowWidth="21600" windowHeight="11385" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>台属</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -94,6 +86,10 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -169,9 +165,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -181,6 +183,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -201,23 +225,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,43 +565,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="26">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -602,25 +633,28 @@
       <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -631,45 +665,45 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -679,8 +713,11 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>